--- a/docs/SCRATCH應用競賽國小乙組程式設計組決賽名冊.xlsx
+++ b/docs/SCRATCH應用競賽國小乙組程式設計組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="173">
   <si>
     <t>序</t>
   </si>
@@ -45,499 +45,235 @@
     <t>SCRATCH應用競賽國小乙組程式設計組</t>
   </si>
   <si>
-    <t>大肚區瑞井國小</t>
-  </si>
-  <si>
-    <t>龔德恩</t>
-  </si>
-  <si>
-    <t>游美玲</t>
-  </si>
-  <si>
-    <t>pe76a4</t>
-  </si>
-  <si>
-    <t>gw5r6</t>
-  </si>
-  <si>
-    <t>大肚區瑞峰國小</t>
-  </si>
-  <si>
-    <t>胡紀勳</t>
-  </si>
-  <si>
-    <t>莊啟宗</t>
-  </si>
-  <si>
-    <t>pe92n3</t>
-  </si>
-  <si>
-    <t>n81nc4</t>
-  </si>
-  <si>
-    <t>王昱</t>
-  </si>
-  <si>
-    <t>bjk52g5</t>
-  </si>
-  <si>
-    <t>p52my6</t>
-  </si>
-  <si>
-    <t>大里區草湖國小</t>
-  </si>
-  <si>
-    <t>賴郁達</t>
-  </si>
-  <si>
-    <t>游淑雅</t>
-  </si>
-  <si>
-    <t>e45cd6</t>
-  </si>
-  <si>
-    <t>smy4pe5</t>
-  </si>
-  <si>
-    <t>大雅區上楓國小</t>
-  </si>
-  <si>
-    <t>林秉寬</t>
-  </si>
-  <si>
-    <t>林宏憲</t>
-  </si>
-  <si>
-    <t>dx87hp5</t>
-  </si>
-  <si>
-    <t>v56yg8</t>
-  </si>
-  <si>
-    <t>温又齊</t>
-  </si>
-  <si>
-    <t>tv99c5</t>
-  </si>
-  <si>
-    <t>kfr7m2</t>
-  </si>
-  <si>
-    <t>大雅區汝鎏國小</t>
-  </si>
-  <si>
-    <t>張仕佳</t>
-  </si>
-  <si>
-    <t>洪建興</t>
-  </si>
-  <si>
-    <t>tv95r6</t>
-  </si>
-  <si>
-    <t>s77j2</t>
-  </si>
-  <si>
-    <t>中區光復國小</t>
-  </si>
-  <si>
-    <t>蔡淳璿</t>
-  </si>
-  <si>
-    <t>顏慶琳</t>
-  </si>
-  <si>
-    <t>pet16h7</t>
-  </si>
-  <si>
-    <t>cdx17v9</t>
-  </si>
-  <si>
-    <t>夏瑋彤</t>
-  </si>
-  <si>
-    <t>etv67my9</t>
-  </si>
-  <si>
-    <t>h92p6</t>
+    <t>大甲區華龍國小</t>
+  </si>
+  <si>
+    <t>蔡旻辰</t>
+  </si>
+  <si>
+    <t>李宗欣</t>
+  </si>
+  <si>
+    <t>hp67c6</t>
+  </si>
+  <si>
+    <t>an3dx8</t>
+  </si>
+  <si>
+    <t>葉宜慧</t>
+  </si>
+  <si>
+    <t>wh75gw4</t>
+  </si>
+  <si>
+    <t>yg91w5</t>
+  </si>
+  <si>
+    <t>大安區海墘國小</t>
+  </si>
+  <si>
+    <t>王宥琝</t>
+  </si>
+  <si>
+    <t>李思賢</t>
+  </si>
+  <si>
+    <t>bj87my3</t>
+  </si>
+  <si>
+    <t>etv27bj2</t>
+  </si>
+  <si>
+    <t>郭峻瑋</t>
+  </si>
+  <si>
+    <t>my81s3</t>
+  </si>
+  <si>
+    <t>cd32rs2</t>
+  </si>
+  <si>
+    <t>大肚區大忠國小</t>
+  </si>
+  <si>
+    <t>張紫晴</t>
+  </si>
+  <si>
+    <t>溫芝</t>
+  </si>
+  <si>
+    <t>ygw98c1</t>
+  </si>
+  <si>
+    <t>tv81m3</t>
+  </si>
+  <si>
+    <t>黃芯柔</t>
+  </si>
+  <si>
+    <t>gw75b6</t>
+  </si>
+  <si>
+    <t>m87gw8</t>
+  </si>
+  <si>
+    <t>大肚區山陽國小</t>
+  </si>
+  <si>
+    <t>鄭浩岑</t>
+  </si>
+  <si>
+    <t>紀岳錡</t>
+  </si>
+  <si>
+    <t>gw81h6</t>
+  </si>
+  <si>
+    <t>tv9f3</t>
   </si>
   <si>
     <t>太平區坪林國小</t>
   </si>
   <si>
-    <t>林彥廷</t>
+    <t>廖澤閎</t>
   </si>
   <si>
     <t>陳永陸</t>
   </si>
   <si>
-    <t>t3kf5</t>
-  </si>
-  <si>
-    <t>e46d7</t>
-  </si>
-  <si>
-    <t>太平區建平國小</t>
-  </si>
-  <si>
-    <t>謝宗均</t>
-  </si>
-  <si>
-    <t>黃國順</t>
-  </si>
-  <si>
-    <t>kfr17cd8</t>
-  </si>
-  <si>
-    <t>h40sm1</t>
-  </si>
-  <si>
-    <t>北屯區明道普霖斯頓小學</t>
-  </si>
-  <si>
-    <t>黃翊修</t>
-  </si>
-  <si>
-    <t>劉振維</t>
-  </si>
-  <si>
-    <t>sm69n4</t>
-  </si>
-  <si>
-    <t>bj50a7</t>
-  </si>
-  <si>
-    <t>楊秉育</t>
-  </si>
-  <si>
-    <t>kf36h8</t>
-  </si>
-  <si>
-    <t>rsm74xb3</t>
-  </si>
-  <si>
-    <t>邱泓喆</t>
-  </si>
-  <si>
-    <t>xb78f2</t>
-  </si>
-  <si>
-    <t>s70h1</t>
-  </si>
-  <si>
-    <t>陳俠夫</t>
-  </si>
-  <si>
-    <t>v45sm3</t>
-  </si>
-  <si>
-    <t>bjk14t2</t>
-  </si>
-  <si>
-    <t>北屯區陳平國小</t>
-  </si>
-  <si>
-    <t>劉宇喬</t>
-  </si>
-  <si>
-    <t>周冠廷</t>
-  </si>
-  <si>
-    <t>rs93dx2</t>
-  </si>
-  <si>
-    <t>dx86my2</t>
-  </si>
-  <si>
-    <t>林承恩</t>
-  </si>
-  <si>
-    <t>nc41t7</t>
-  </si>
-  <si>
-    <t>gwh88dx3</t>
-  </si>
-  <si>
-    <t>蘇翔安</t>
-  </si>
-  <si>
-    <t>bj32j7</t>
-  </si>
-  <si>
-    <t>s71gw6</t>
-  </si>
-  <si>
-    <t>北區育仁小學</t>
-  </si>
-  <si>
-    <t>蘇芷筠</t>
-  </si>
-  <si>
-    <t>鄭文承</t>
-  </si>
-  <si>
-    <t>kf44e8</t>
-  </si>
-  <si>
-    <t>gwh96my5</t>
-  </si>
-  <si>
-    <t>蘇炘浩</t>
-  </si>
-  <si>
-    <t>kfr8h2</t>
-  </si>
-  <si>
-    <t>dx32fr5</t>
-  </si>
-  <si>
-    <t>陳幸楷</t>
-  </si>
-  <si>
-    <t>y53tv3</t>
-  </si>
-  <si>
-    <t>bj49k4</t>
-  </si>
-  <si>
-    <t>呂承寰</t>
-  </si>
-  <si>
-    <t>tv88nc9</t>
-  </si>
-  <si>
-    <t>jkf67bj6</t>
-  </si>
-  <si>
-    <t>北區臺中教大實小</t>
-  </si>
-  <si>
-    <t>林品純</t>
-  </si>
-  <si>
-    <t>林裕集</t>
-  </si>
-  <si>
-    <t>fr94wh7</t>
-  </si>
-  <si>
-    <t>ncd17h5</t>
-  </si>
-  <si>
-    <t>吳雨珊</t>
-  </si>
-  <si>
-    <t>nc47my3</t>
-  </si>
-  <si>
-    <t>w17yg4</t>
-  </si>
-  <si>
-    <t>莫筑鈞</t>
-  </si>
-  <si>
-    <t>dx69pe4</t>
-  </si>
-  <si>
-    <t>rs89yg5</t>
-  </si>
-  <si>
-    <t>北區篤行國小</t>
-  </si>
-  <si>
-    <t>呂鈞右</t>
-  </si>
-  <si>
-    <t>呂健聰</t>
-  </si>
-  <si>
-    <t>bjk4x4</t>
-  </si>
-  <si>
-    <t>gwh4bj3</t>
-  </si>
-  <si>
-    <t>賴宥亘</t>
-  </si>
-  <si>
-    <t>bjk8p7</t>
-  </si>
-  <si>
-    <t>gw21tv7</t>
-  </si>
-  <si>
-    <t>林治勳</t>
-  </si>
-  <si>
-    <t>pe80g8</t>
-  </si>
-  <si>
-    <t>hpe94yg8</t>
-  </si>
-  <si>
-    <t>劉彥維</t>
-  </si>
-  <si>
-    <t>etv13nc3</t>
-  </si>
-  <si>
-    <t>gwh75dx8</t>
-  </si>
-  <si>
-    <t>外埔區外埔國小</t>
-  </si>
-  <si>
-    <t>曾黃壕</t>
-  </si>
-  <si>
-    <t>陳文鴻</t>
-  </si>
-  <si>
-    <t>sm53k2</t>
-  </si>
-  <si>
-    <t>sm46my2</t>
-  </si>
-  <si>
-    <t>羅正丞</t>
-  </si>
-  <si>
-    <t>x16cd6</t>
-  </si>
-  <si>
-    <t>nc84e2</t>
-  </si>
-  <si>
-    <t>謝兆洋</t>
-  </si>
-  <si>
-    <t>陳雅玲</t>
-  </si>
-  <si>
-    <t>nc96kf8</t>
-  </si>
-  <si>
-    <t>r50p2</t>
-  </si>
-  <si>
-    <t>蘇冠文</t>
-  </si>
-  <si>
-    <t>bjk27xb3</t>
-  </si>
-  <si>
-    <t>rs91j1</t>
+    <t>rsm6tv4</t>
+  </si>
+  <si>
+    <t>xbj86tv3</t>
+  </si>
+  <si>
+    <t>楊丙笙</t>
+  </si>
+  <si>
+    <t>s42pe1</t>
+  </si>
+  <si>
+    <t>jk12cd3</t>
+  </si>
+  <si>
+    <t>毛聖方</t>
+  </si>
+  <si>
+    <t>rs24r4</t>
+  </si>
+  <si>
+    <t>jk99gw2</t>
+  </si>
+  <si>
+    <t>北區太平國小</t>
+  </si>
+  <si>
+    <t>黃宇德</t>
+  </si>
+  <si>
+    <t>劉安哲</t>
+  </si>
+  <si>
+    <t>whp63k2</t>
+  </si>
+  <si>
+    <t>jk12rs5</t>
+  </si>
+  <si>
+    <t>許宸維</t>
+  </si>
+  <si>
+    <t>kfr33j4</t>
+  </si>
+  <si>
+    <t>cd83w4</t>
+  </si>
+  <si>
+    <t>余尚益</t>
+  </si>
+  <si>
+    <t>cd55sm7</t>
+  </si>
+  <si>
+    <t>et90y1</t>
+  </si>
+  <si>
+    <t>北區健行國小</t>
+  </si>
+  <si>
+    <t>陳禹叡</t>
+  </si>
+  <si>
+    <t>王環源</t>
+  </si>
+  <si>
+    <t>p36p6</t>
+  </si>
+  <si>
+    <t>c35y4</t>
+  </si>
+  <si>
+    <t>孫上恩</t>
+  </si>
+  <si>
+    <t>cdx5b2</t>
+  </si>
+  <si>
+    <t>p49cd8</t>
+  </si>
+  <si>
+    <t>吳昕燁</t>
+  </si>
+  <si>
+    <t>t90pe6</t>
+  </si>
+  <si>
+    <t>kf40b5</t>
   </si>
   <si>
     <t>石岡區石岡國小</t>
   </si>
   <si>
-    <t>管浚宇</t>
+    <t>張庭瑜</t>
   </si>
   <si>
     <t>洪宗岳</t>
   </si>
   <si>
-    <t>k40fr4</t>
-  </si>
-  <si>
-    <t>n89rs9</t>
-  </si>
-  <si>
-    <t>朱睿綦</t>
-  </si>
-  <si>
-    <t>v78hp4</t>
-  </si>
-  <si>
-    <t>anc8g7</t>
-  </si>
-  <si>
-    <t>后里區七星國小</t>
-  </si>
-  <si>
-    <t>韓靜惠</t>
-  </si>
-  <si>
-    <t>胡安寧</t>
-  </si>
-  <si>
-    <t>frs12d1</t>
-  </si>
-  <si>
-    <t>anc86xb4</t>
-  </si>
-  <si>
-    <t>羅至侑</t>
-  </si>
-  <si>
-    <t>ncd84n3</t>
-  </si>
-  <si>
-    <t>hp52w7</t>
+    <t>x24gw5</t>
+  </si>
+  <si>
+    <t>g45s8</t>
   </si>
   <si>
     <t>西屯區何厝國小</t>
   </si>
   <si>
-    <t>林品翰</t>
+    <t>何閎駿</t>
   </si>
   <si>
     <t>陳勝裕</t>
   </si>
   <si>
-    <t>s92yg6</t>
-  </si>
-  <si>
-    <t>hp52jk8</t>
-  </si>
-  <si>
-    <t>鄭鈞嘉</t>
-  </si>
-  <si>
-    <t>k80f4</t>
-  </si>
-  <si>
-    <t>smy15r9</t>
-  </si>
-  <si>
-    <t>西屯區東海國小</t>
-  </si>
-  <si>
-    <t>許博倫</t>
-  </si>
-  <si>
-    <t>林益興</t>
-  </si>
-  <si>
-    <t>pe65pe4</t>
-  </si>
-  <si>
-    <t>ncd36w5</t>
+    <t>gwh53cd4</t>
+  </si>
+  <si>
+    <t>sm23rs5</t>
   </si>
   <si>
     <t>西屯區重慶國小</t>
   </si>
   <si>
-    <t>陳觀讄</t>
-  </si>
-  <si>
-    <t>楊晟汶</t>
-  </si>
-  <si>
-    <t>jk82pe2</t>
-  </si>
-  <si>
-    <t>p92j8</t>
-  </si>
-  <si>
-    <t>李冠淳</t>
-  </si>
-  <si>
-    <t>ncd63j7</t>
-  </si>
-  <si>
-    <t>kfr76p3</t>
+    <t>連宥翔</t>
+  </si>
+  <si>
+    <t>歐陽國和</t>
+  </si>
+  <si>
+    <t>wh2sm9</t>
+  </si>
+  <si>
+    <t>whp57cd3</t>
   </si>
   <si>
     <t>西屯區泰安國小</t>
@@ -549,355 +285,259 @@
     <t>吳家瑋</t>
   </si>
   <si>
-    <t>sm30y2</t>
-  </si>
-  <si>
-    <t>e54p4</t>
-  </si>
-  <si>
-    <t>西區忠明國小</t>
-  </si>
-  <si>
-    <t>楊承浩</t>
-  </si>
-  <si>
-    <t>張詩岳</t>
-  </si>
-  <si>
-    <t>my23rs5</t>
-  </si>
-  <si>
-    <t>r53h4</t>
+    <t>kf33et9</t>
+  </si>
+  <si>
+    <t>gw97jk2</t>
+  </si>
+  <si>
+    <t>趙品睿</t>
+  </si>
+  <si>
+    <t>an54t7</t>
+  </si>
+  <si>
+    <t>v24xb5</t>
   </si>
   <si>
     <t>沙鹿區公明國小</t>
   </si>
   <si>
-    <t>許博勝</t>
-  </si>
-  <si>
-    <t>柯慶輝</t>
-  </si>
-  <si>
-    <t>xb42hp2</t>
-  </si>
-  <si>
-    <t>tv75dx6</t>
-  </si>
-  <si>
-    <t>沙鹿區文光國小</t>
-  </si>
-  <si>
-    <t>劉禹辰</t>
-  </si>
-  <si>
-    <t>卓錫斌</t>
-  </si>
-  <si>
-    <t>jkf30x6</t>
-  </si>
-  <si>
-    <t>pet33n4</t>
-  </si>
-  <si>
-    <t>倪以馨</t>
-  </si>
-  <si>
-    <t>hp61r6</t>
-  </si>
-  <si>
-    <t>gw3sm7</t>
-  </si>
-  <si>
-    <t>南屯區鎮平國小</t>
-  </si>
-  <si>
-    <t>陳煥宇</t>
-  </si>
-  <si>
-    <t>謝忠興</t>
-  </si>
-  <si>
-    <t>v73kf7</t>
-  </si>
-  <si>
-    <t>b21t2</t>
-  </si>
-  <si>
-    <t>楊宸宇</t>
-  </si>
-  <si>
-    <t>bj10m6</t>
-  </si>
-  <si>
-    <t>hp88gw7</t>
-  </si>
-  <si>
-    <t>烏日區東園國小</t>
-  </si>
-  <si>
-    <t>楊智翔</t>
-  </si>
-  <si>
-    <t>劉桂娟</t>
-  </si>
-  <si>
-    <t>hp93x6</t>
-  </si>
-  <si>
-    <t>kfr13cd3</t>
+    <t>蔡宇捷</t>
+  </si>
+  <si>
+    <t>謝映珠</t>
+  </si>
+  <si>
+    <t>xb39kf2</t>
+  </si>
+  <si>
+    <t>frs20g4</t>
+  </si>
+  <si>
+    <t>鄭若芸</t>
+  </si>
+  <si>
+    <t>劉嘉熙</t>
+  </si>
+  <si>
+    <t>a74m6</t>
+  </si>
+  <si>
+    <t>kf97w7</t>
+  </si>
+  <si>
+    <t>東勢區新成國小</t>
+  </si>
+  <si>
+    <t>劉佑城</t>
+  </si>
+  <si>
+    <t>黃世勳</t>
+  </si>
+  <si>
+    <t>et36xb4</t>
+  </si>
+  <si>
+    <t>an29h6</t>
+  </si>
+  <si>
+    <t>魏廷浩</t>
+  </si>
+  <si>
+    <t>pet81k6</t>
+  </si>
+  <si>
+    <t>j99my6</t>
+  </si>
+  <si>
+    <t>許濡權</t>
+  </si>
+  <si>
+    <t>pet84t4</t>
+  </si>
+  <si>
+    <t>t7g3</t>
   </si>
   <si>
     <t>烏日區喀哩國小</t>
   </si>
   <si>
-    <t>廖昱安</t>
+    <t>張晏綺</t>
   </si>
   <si>
     <t>張美娟</t>
   </si>
   <si>
-    <t>hp33dx8</t>
-  </si>
-  <si>
-    <t>yg57sm3</t>
-  </si>
-  <si>
-    <t>烏日區僑仁國小</t>
-  </si>
-  <si>
-    <t>鄭建原</t>
-  </si>
-  <si>
-    <t>廖憲邦</t>
-  </si>
-  <si>
-    <t>hp34n4</t>
-  </si>
-  <si>
-    <t>etv42v2</t>
-  </si>
-  <si>
-    <t>蔡家昕</t>
-  </si>
-  <si>
-    <t>xb56a4</t>
-  </si>
-  <si>
-    <t>j43sm6</t>
-  </si>
-  <si>
-    <t>神岡區神岡國小</t>
-  </si>
-  <si>
-    <t>張梓洋</t>
-  </si>
-  <si>
-    <t>林奎光</t>
-  </si>
-  <si>
-    <t>fr85r3</t>
-  </si>
-  <si>
-    <t>f34fr8</t>
-  </si>
-  <si>
-    <t>莊竣騰</t>
-  </si>
-  <si>
-    <t>r30d1</t>
-  </si>
-  <si>
-    <t>wh45d4</t>
-  </si>
-  <si>
-    <t>陳佩君</t>
-  </si>
-  <si>
-    <t>tv44bj2</t>
-  </si>
-  <si>
-    <t>pe50a2</t>
-  </si>
-  <si>
-    <t>清水區三田國小</t>
-  </si>
-  <si>
-    <t>楊俊佑</t>
-  </si>
-  <si>
-    <t>鄭博旗</t>
-  </si>
-  <si>
-    <t>cd79bj3</t>
-  </si>
-  <si>
-    <t>yg76s5</t>
-  </si>
-  <si>
-    <t>鄭宗翰</t>
-  </si>
-  <si>
-    <t>c55r2</t>
-  </si>
-  <si>
-    <t>whp42w5</t>
-  </si>
-  <si>
-    <t>林哲全</t>
-  </si>
-  <si>
-    <t>e59x8</t>
-  </si>
-  <si>
-    <t>jk15et5</t>
-  </si>
-  <si>
-    <t>吳洹柏</t>
-  </si>
-  <si>
-    <t>sm68cd7</t>
-  </si>
-  <si>
-    <t>v99jk9</t>
-  </si>
-  <si>
-    <t>清水區西寧國小</t>
-  </si>
-  <si>
-    <t>蔡豪恩</t>
-  </si>
-  <si>
-    <t>丁浩展</t>
-  </si>
-  <si>
-    <t>cd99yg5</t>
-  </si>
-  <si>
-    <t>c51et4</t>
+    <t>jkf71t5</t>
+  </si>
+  <si>
+    <t>k60bj2</t>
+  </si>
+  <si>
+    <t>神岡區圳堵國小</t>
+  </si>
+  <si>
+    <t>王有宏</t>
+  </si>
+  <si>
+    <t>蔡阜鋼</t>
+  </si>
+  <si>
+    <t>nc4y3</t>
+  </si>
+  <si>
+    <t>myg24p8</t>
+  </si>
+  <si>
+    <t>清水區甲南國小</t>
+  </si>
+  <si>
+    <t>許伊妗</t>
+  </si>
+  <si>
+    <t>林建雄</t>
+  </si>
+  <si>
+    <t>jkf66dx8</t>
+  </si>
+  <si>
+    <t>smy74r5</t>
+  </si>
+  <si>
+    <t>新社區大南國小</t>
+  </si>
+  <si>
+    <t>邱新堯</t>
+  </si>
+  <si>
+    <t>陳隆圖</t>
+  </si>
+  <si>
+    <t>bjk6b2</t>
+  </si>
+  <si>
+    <t>frs88f4</t>
   </si>
   <si>
     <t>龍井區龍山國小</t>
   </si>
   <si>
-    <t>邱冠禕</t>
+    <t>全宇安</t>
   </si>
   <si>
     <t>林鎮平</t>
   </si>
   <si>
-    <t>bj82hp5</t>
-  </si>
-  <si>
-    <t>b5t6</t>
-  </si>
-  <si>
-    <t>龍井區龍泉國小</t>
-  </si>
-  <si>
-    <t>楊渝幀</t>
-  </si>
-  <si>
-    <t>顏銘賢</t>
-  </si>
-  <si>
-    <t>kf57jk2</t>
-  </si>
-  <si>
-    <t>etv41rs6</t>
-  </si>
-  <si>
-    <t>謝承祐</t>
-  </si>
-  <si>
-    <t>蔡金蓉</t>
-  </si>
-  <si>
-    <t>cdx97e6</t>
-  </si>
-  <si>
-    <t>f72s8</t>
-  </si>
-  <si>
-    <t>林杰陞</t>
-  </si>
-  <si>
-    <t>陳春月</t>
-  </si>
-  <si>
-    <t>hpe64wh5</t>
-  </si>
-  <si>
-    <t>rs53an9</t>
+    <t>rsm64m4</t>
+  </si>
+  <si>
+    <t>whp54f7</t>
+  </si>
+  <si>
+    <t>陳浤睿</t>
+  </si>
+  <si>
+    <t>w62k9</t>
+  </si>
+  <si>
+    <t>hp3v7</t>
+  </si>
+  <si>
+    <t>李婕恩</t>
+  </si>
+  <si>
+    <t>k90pe8</t>
+  </si>
+  <si>
+    <t>smy72jk4</t>
   </si>
   <si>
     <t>龍井區龍海國小</t>
   </si>
   <si>
-    <t>何雯茜</t>
+    <t>陳仲祺</t>
   </si>
   <si>
     <t>吳偉碩</t>
   </si>
   <si>
-    <t>frs68kf4</t>
-  </si>
-  <si>
-    <t>xbj14k3</t>
-  </si>
-  <si>
-    <t>林宗駐</t>
-  </si>
-  <si>
-    <t>ygw80g8</t>
-  </si>
-  <si>
-    <t>xb23t7</t>
+    <t>f42b4</t>
+  </si>
+  <si>
+    <t>k97et5</t>
+  </si>
+  <si>
+    <t>吳芳汝</t>
+  </si>
+  <si>
+    <t>k48r3</t>
+  </si>
+  <si>
+    <t>r18nc9</t>
+  </si>
+  <si>
+    <t>劉千毓</t>
+  </si>
+  <si>
+    <t>et65h3</t>
+  </si>
+  <si>
+    <t>fr7e8</t>
   </si>
   <si>
     <t>豐原區翁子國小</t>
   </si>
   <si>
-    <t>紀睿峯</t>
+    <t>游家妤</t>
   </si>
   <si>
     <t>陳俊宏</t>
   </si>
   <si>
-    <t>j48c7</t>
-  </si>
-  <si>
-    <t>rsm73r4</t>
-  </si>
-  <si>
-    <t>豐原區豐原國小</t>
-  </si>
-  <si>
-    <t>王治鏞</t>
-  </si>
-  <si>
-    <t>陳信雄</t>
-  </si>
-  <si>
-    <t>pet44r2</t>
-  </si>
-  <si>
-    <t>my95f8</t>
+    <t>ncd65c4</t>
+  </si>
+  <si>
+    <t>gwh42s8</t>
+  </si>
+  <si>
+    <t>洪子淇</t>
+  </si>
+  <si>
+    <t>r58p7</t>
+  </si>
+  <si>
+    <t>gw89rs6</t>
+  </si>
+  <si>
+    <t>霧峰區四德國小</t>
+  </si>
+  <si>
+    <t>杜尚諭</t>
+  </si>
+  <si>
+    <t>周世忠</t>
+  </si>
+  <si>
+    <t>kf46nc4</t>
+  </si>
+  <si>
+    <t>c13bj7</t>
   </si>
   <si>
     <t>霧峰區吉峰國小</t>
   </si>
   <si>
-    <t>郭騏熏</t>
+    <t>李恩齊</t>
   </si>
   <si>
     <t>阮培洲</t>
   </si>
   <si>
-    <t>k42fr5</t>
-  </si>
-  <si>
-    <t>n88j2</t>
+    <t>tv91yg3</t>
+  </si>
+  <si>
+    <t>fr6sm5</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1899,11 +1539,10 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1960,19 +1599,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1983,13 +1622,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
@@ -2006,19 +1645,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2029,19 +1668,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2052,19 +1691,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2075,19 +1714,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2098,19 +1737,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2121,19 +1760,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2144,19 +1783,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2167,19 +1806,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2190,19 +1829,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2213,19 +1852,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2236,19 +1875,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2259,19 +1898,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2282,19 +1921,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2305,19 +1944,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2328,19 +1967,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2351,19 +1990,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2374,13 +2013,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>88</v>
@@ -2397,13 +2036,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>91</v>
@@ -2420,19 +2059,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2443,19 +2082,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2466,19 +2105,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2489,19 +2128,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2512,19 +2151,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2535,19 +2174,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2558,19 +2197,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2581,19 +2220,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2604,19 +2243,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2627,19 +2266,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2650,19 +2289,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2673,19 +2312,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2696,19 +2335,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2719,19 +2358,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2745,16 +2384,16 @@
         <v>144</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>146</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2765,19 +2404,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2788,19 +2427,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2811,19 +2450,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2834,709 +2473,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43" s="8" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="7">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="7">
-        <v>64</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="7">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="4">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="7">
-        <v>68</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="4">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="7">
-        <v>70</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
